--- a/edu/src/main/webapp/WEB-INF/pages/edu/src/data/common/excelModel/teacher.xlsx
+++ b/edu/src/main/webapp/WEB-INF/pages/edu/src/data/common/excelModel/teacher.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jimboi\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23903" windowHeight="11411"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>员工编码</t>
   </si>
@@ -71,9 +66,18 @@
     <t>描述</t>
   </si>
   <si>
+    <t>提示：1&gt;如果是兼职员工，员工编码请填partTimeTeacher；2&gt;红色表头为必填；3&gt;请从第5行开始录入教师信息</t>
+  </si>
+  <si>
     <t>示例（不会导入到系统，请勿尝试删除）:</t>
   </si>
   <si>
+    <t>shili</t>
+  </si>
+  <si>
+    <t>示例</t>
+  </si>
+  <si>
     <t>主讲教师</t>
   </si>
   <si>
@@ -92,136 +96,29 @@
     <t>数学,语文</t>
   </si>
   <si>
-    <t>厦门地区个性化团队</t>
+    <t>厦门运营团队</t>
+  </si>
+  <si>
+    <t>shili@klxuexi.org</t>
+  </si>
+  <si>
+    <t>该记录不会录入到数据库中，请勿尝试删除</t>
   </si>
   <si>
     <t>团队</t>
-  </si>
-  <si>
-    <t>厦门地区承诺班团队</t>
-  </si>
-  <si>
-    <t>厦门地区培英精品班团队</t>
-  </si>
-  <si>
-    <t>厦门市同安区快乐学习教育培训中心</t>
-  </si>
-  <si>
-    <t>厦门韦尔培教育科技有限公司</t>
-  </si>
-  <si>
-    <t>福州地区个性化团队</t>
-  </si>
-  <si>
-    <t>福州地区培英精品班团队</t>
-  </si>
-  <si>
-    <t>福州地区小学部团队</t>
-  </si>
-  <si>
-    <t>福州地区雅思项目团队</t>
-  </si>
-  <si>
-    <t>福州地区艺考班团队</t>
-  </si>
-  <si>
-    <t>佳音英语总部</t>
-  </si>
-  <si>
-    <t>福州佳音团队</t>
-  </si>
-  <si>
-    <t>超级名师孵化器团队</t>
-  </si>
-  <si>
-    <t>合肥地区个性化团队</t>
-  </si>
-  <si>
-    <t>合肥地区培英精品班团队</t>
-  </si>
-  <si>
-    <t>南昌地区【南昌】小学部团队</t>
-  </si>
-  <si>
-    <t>南昌地区个性化团队</t>
-  </si>
-  <si>
-    <t>南昌地区培英精品班团队</t>
-  </si>
-  <si>
-    <t>南昌地区艺考班团队</t>
-  </si>
-  <si>
-    <t>泉州地区个性化团队</t>
-  </si>
-  <si>
-    <t>泉州地区培英精品班团队</t>
-  </si>
-  <si>
-    <t>泉州地区艺考班团队</t>
-  </si>
-  <si>
-    <t>上海地区个性化团队</t>
-  </si>
-  <si>
-    <t>上海地区合作项目团队</t>
-  </si>
-  <si>
-    <t>上海地区培英精品班团队</t>
-  </si>
-  <si>
-    <t>苏州佳音团队</t>
-  </si>
-  <si>
-    <t>武汉佳音团队</t>
-  </si>
-  <si>
-    <t>艾酷游学团队</t>
-  </si>
-  <si>
-    <t>齐峰教育团队</t>
-  </si>
-  <si>
-    <t>享学网络</t>
-  </si>
-  <si>
-    <t>中厦合作中厦合作团队</t>
-  </si>
-  <si>
-    <t>shili</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>该记录不会录入到数据库中，请勿尝试删除</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>shili@klxuexi.org</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示：1&gt;如果是兼职员工，员工编码请填partTimeTeacher；2&gt;红色表头为必填；3&gt;请从第5行开始录入教师信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -272,23 +169,154 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,25 +325,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +349,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,8 +485,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -346,30 +536,269 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -377,78 +806,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="20% - 着色 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="40% - 着色 4" xfId="5" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="40% - 着色 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="60% - 着色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+  <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="着色 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="着色 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="60% - 着色 2" xfId="2"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="20% - 着色 5" xfId="19"/>
+    <cellStyle name="着色 1" xfId="20"/>
+    <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="40% - 着色 4" xfId="28"/>
+    <cellStyle name="计算" xfId="29" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="30" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="31" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="32" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="33" builtinId="24"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="40% - 着色 5" xfId="35"/>
+    <cellStyle name="好" xfId="36" builtinId="26"/>
+    <cellStyle name="着色 5" xfId="37"/>
+    <cellStyle name="适中" xfId="38" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="39" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="40" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="42" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="43" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="44" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="45" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="46" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF0000FF"/>
-      <color rgb="FFFF0000"/>
-      <color rgb="FF70AD47"/>
-      <color rgb="FF000000"/>
+      <color rgb="000000FF"/>
+      <color rgb="00FF0000"/>
+      <color rgb="0070AD47"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -706,122 +1178,122 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:IV5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="7"/>
-    <col min="3" max="3" width="14.5" style="7"/>
-    <col min="4" max="4" width="18.25" style="7"/>
-    <col min="5" max="5" width="22" style="7"/>
-    <col min="6" max="6" width="12" style="7"/>
-    <col min="7" max="8" width="15.75" style="7"/>
-    <col min="9" max="9" width="10.75" style="7"/>
-    <col min="10" max="10" width="14.5" style="7"/>
-    <col min="11" max="11" width="18.25" style="7"/>
-    <col min="12" max="12" width="14.5" style="7"/>
-    <col min="13" max="13" width="29.5" style="7" customWidth="1"/>
-    <col min="14" max="14" width="23.75" style="7" customWidth="1"/>
-    <col min="15" max="15" width="40.5" style="7" customWidth="1"/>
-    <col min="16" max="228" width="9" style="7"/>
-    <col min="229" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="21.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="5"/>
+    <col min="3" max="3" width="14.5" style="5"/>
+    <col min="4" max="4" width="18.25" style="5"/>
+    <col min="5" max="5" width="22" style="5"/>
+    <col min="6" max="6" width="12" style="5"/>
+    <col min="7" max="8" width="15.75" style="5"/>
+    <col min="9" max="9" width="10.75" style="5"/>
+    <col min="10" max="10" width="14.5" style="5"/>
+    <col min="11" max="11" width="18.25" style="5"/>
+    <col min="12" max="12" width="14.5" style="5"/>
+    <col min="13" max="13" width="29.5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="23.75" style="5" customWidth="1"/>
+    <col min="15" max="15" width="40.5" style="5" customWidth="1"/>
+    <col min="16" max="228" width="9" style="5"/>
+    <col min="229" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+    <row r="2" s="3" customFormat="1" spans="1:15">
+      <c r="A2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:256" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+    <row r="3" s="4" customFormat="1" spans="1:256">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
       <c r="HU3" s="14"/>
       <c r="HV3" s="14"/>
       <c r="HW3" s="14"/>
@@ -851,18 +1323,18 @@
       <c r="IU3" s="14"/>
       <c r="IV3" s="14"/>
     </row>
-    <row r="4" spans="1:256" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="4" customFormat="1" spans="1:256">
       <c r="A4" s="10" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E4" s="11">
         <v>26</v>
@@ -871,31 +1343,31 @@
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="HU4" s="14"/>
       <c r="HV4" s="14"/>
@@ -926,263 +1398,114 @@
       <c r="IU4" s="14"/>
       <c r="IV4" s="14"/>
     </row>
-    <row r="5" spans="1:256" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" s="5" customFormat="1" spans="5:256">
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="HU5" s="8"/>
-      <c r="HV5" s="8"/>
-      <c r="HW5" s="8"/>
-      <c r="HX5" s="8"/>
-      <c r="HY5" s="8"/>
-      <c r="HZ5" s="8"/>
-      <c r="IA5" s="8"/>
-      <c r="IB5" s="8"/>
-      <c r="IC5" s="8"/>
-      <c r="ID5" s="8"/>
-      <c r="IE5" s="8"/>
-      <c r="IF5" s="8"/>
-      <c r="IG5" s="8"/>
-      <c r="IH5" s="8"/>
-      <c r="II5" s="8"/>
-      <c r="IJ5" s="8"/>
-      <c r="IK5" s="8"/>
-      <c r="IL5" s="8"/>
-      <c r="IM5" s="8"/>
-      <c r="IN5" s="8"/>
-      <c r="IO5" s="8"/>
-      <c r="IP5" s="8"/>
-      <c r="IQ5" s="8"/>
-      <c r="IR5" s="8"/>
-      <c r="IS5" s="8"/>
-      <c r="IT5" s="8"/>
-      <c r="IU5" s="8"/>
-      <c r="IV5" s="8"/>
+      <c r="HU5" s="6"/>
+      <c r="HV5" s="6"/>
+      <c r="HW5" s="6"/>
+      <c r="HX5" s="6"/>
+      <c r="HY5" s="6"/>
+      <c r="HZ5" s="6"/>
+      <c r="IA5" s="6"/>
+      <c r="IB5" s="6"/>
+      <c r="IC5" s="6"/>
+      <c r="ID5" s="6"/>
+      <c r="IE5" s="6"/>
+      <c r="IF5" s="6"/>
+      <c r="IG5" s="6"/>
+      <c r="IH5" s="6"/>
+      <c r="II5" s="6"/>
+      <c r="IJ5" s="6"/>
+      <c r="IK5" s="6"/>
+      <c r="IL5" s="6"/>
+      <c r="IM5" s="6"/>
+      <c r="IN5" s="6"/>
+      <c r="IO5" s="6"/>
+      <c r="IP5" s="6"/>
+      <c r="IQ5" s="6"/>
+      <c r="IR5" s="6"/>
+      <c r="IS5" s="6"/>
+      <c r="IT5" s="6"/>
+      <c r="IU5" s="6"/>
+      <c r="IV5" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SbCrdwM7ZWhyLV6j17fmNaU34qpb0pMmovJlHTMlDUQgUMsnhQlkmg0yKmLFUmeJSxAXiLK9bBBrQZ1/Q6hfQg==" saltValue="wLYdw533ML92sw13y4TgPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" autoFilter="0"/>
+  <sheetProtection insertRows="0" deleteRows="0" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:O3"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G5">
       <formula1>"普通教师,主讲教师,辅导老师-双师,辅导老师-培英"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H5">
       <formula1>"正式员工,试用员工,返聘"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I5" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I5">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K5" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K5">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
       <formula1>团队</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="N4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N4" r:id="rId1" display="shili@klxuexi.org"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E32"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="5" max="6" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E1" s="3" t="s">
-        <v>23</v>
+    <row r="1" spans="5:5">
+      <c r="E1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="5:5">
       <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E4" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E32" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777777797" footer="0.50902777777777797"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>